--- a/Result/07-12-24/NASDAQstock_07-12-24period252RS90.xlsx
+++ b/Result/07-12-24/NASDAQstock_07-12-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/07-12-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0356E61A-5253-2B43-A794-990B2066BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615F535B-DA0A-BF48-92AE-D5F113E8ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,6 +723,7 @@
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -736,16 +737,18 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +771,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -798,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -808,6 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1113,7 +1123,7 @@
   <dimension ref="A1:AN120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1482,7 +1492,7 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B4">
@@ -2080,7 +2090,7 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B9">
@@ -2199,7 +2209,7 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B10">
@@ -2437,7 +2447,7 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B12">
@@ -3032,7 +3042,7 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
+      <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B17">
@@ -3630,7 +3640,7 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B22">
@@ -4344,7 +4354,7 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B28">
@@ -4463,7 +4473,7 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
+      <c r="A29" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B29">
@@ -4701,7 +4711,7 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
+      <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B31">
@@ -4820,7 +4830,7 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
+      <c r="A32" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B32">
@@ -4939,7 +4949,7 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
+      <c r="A33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B33">
@@ -5299,7 +5309,7 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
+      <c r="A36" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B36">
@@ -6132,7 +6142,7 @@
       </c>
     </row>
     <row r="43" spans="1:40">
-      <c r="A43" t="s">
+      <c r="A43" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B43">
@@ -6251,7 +6261,7 @@
       </c>
     </row>
     <row r="44" spans="1:40">
-      <c r="A44" t="s">
+      <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B44">
@@ -11365,7 +11375,7 @@
       </c>
     </row>
     <row r="87" spans="1:40">
-      <c r="A87" t="s">
+      <c r="A87" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B87">

--- a/Result/07-12-24/NASDAQstock_07-12-24period252RS90.xlsx
+++ b/Result/07-12-24/NASDAQstock_07-12-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/07-12-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615F535B-DA0A-BF48-92AE-D5F113E8ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EE35C4-F889-A54E-9D91-2ED99985A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:AN120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
